--- a/file/testdata.xlsx
+++ b/file/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10335" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="22943" windowHeight="9875" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>uname</t>
   </si>
@@ -83,21 +83,12 @@
     <t>ContentGroupName</t>
   </si>
   <si>
-    <t>Automation_Campaign8</t>
-  </si>
-  <si>
-    <t>Automation_Campaign2</t>
+    <t>Automation_Campaignoct1</t>
   </si>
   <si>
     <t>TestGroup1</t>
   </si>
   <si>
-    <t>Automation_Campaign6</t>
-  </si>
-  <si>
-    <t>TestGroup2</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -125,7 +116,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>OfferAutoTest11</t>
+    <t>OfferAutoTestOct1</t>
   </si>
   <si>
     <t>BrandOfferAuto1</t>
@@ -146,7 +137,7 @@
     <t>http://www.google.com</t>
   </si>
   <si>
-    <t>PrizeAutoTest11</t>
+    <t>PrizeAutoTestOct1</t>
   </si>
   <si>
     <t>BrandPrizeAuto1</t>
@@ -214,10 +205,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -242,6 +233,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,10 +318,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,17 +333,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,30 +349,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,57 +368,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -387,121 +378,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,60 +559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,13 +572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +592,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,9 +646,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,42 +669,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,128 +690,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,9 +1150,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.552380952381" customWidth="1"/>
+    <col min="1" max="1" width="19.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1198,15 +1189,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
-    <col min="2" max="3" width="6.85714285714286" customWidth="1"/>
-    <col min="4" max="4" width="9.28571428571429" customWidth="1"/>
-    <col min="5" max="6" width="10.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="14.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="12.1428571428571" customWidth="1"/>
-    <col min="9" max="10" width="13.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="10.5740740740741" customWidth="1"/>
+    <col min="2" max="3" width="6.86111111111111" customWidth="1"/>
+    <col min="4" max="4" width="9.28703703703704" customWidth="1"/>
+    <col min="5" max="6" width="10.287037037037" customWidth="1"/>
+    <col min="7" max="7" width="14.712962962963" customWidth="1"/>
+    <col min="8" max="8" width="12.1388888888889" customWidth="1"/>
+    <col min="9" max="10" width="13.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1283,17 +1274,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="23.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="20.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="11.4285714285714"/>
+    <col min="1" max="2" width="23.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="20.5740740740741" customWidth="1"/>
+    <col min="7" max="7" width="11.4259259259259"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1312,21 +1303,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1344,11 +1324,11 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1358,12 +1338,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1378,23 +1358,23 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="16.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="22.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="18.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="16.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="24.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="17.5740740740741" customWidth="1"/>
+    <col min="4" max="4" width="16.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="22.4259259259259" customWidth="1"/>
+    <col min="7" max="7" width="18.5740740740741" customWidth="1"/>
+    <col min="8" max="8" width="16.712962962963" customWidth="1"/>
+    <col min="9" max="9" width="24.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1403,22 +1383,22 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1426,57 +1406,57 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1498,59 +1478,59 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="24.4285714285714" customWidth="1"/>
-    <col min="5" max="6" width="22.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="18.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="24.4259259259259" customWidth="1"/>
+    <col min="5" max="6" width="22.8611111111111" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1568,12 +1548,12 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="14.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="15.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="11.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="14.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="15.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1581,24 +1561,24 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1616,24 +1596,24 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="14.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
